--- a/Elf_BaseFramework/src/test/resources/testData/testData.xlsx
+++ b/Elf_BaseFramework/src/test/resources/testData/testData.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="11220" windowHeight="6615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,15 +19,131 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>TCS</t>
+  </si>
+  <si>
+    <t>application</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>managementTool1</t>
+  </si>
+  <si>
+    <t>KIAmotors</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Developed</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>CUSTOMER NAME</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>TASKS</t>
+  </si>
+  <si>
+    <t>Acti_TimeTrack_051</t>
+  </si>
+  <si>
+    <t>Acti_TimeTrack_052</t>
+  </si>
+  <si>
+    <t>Acti_TimeTrack_053</t>
+  </si>
+  <si>
+    <t>TVS</t>
+  </si>
+  <si>
+    <t>AutomobileService</t>
+  </si>
+  <si>
+    <t>CollectingRequirement</t>
+  </si>
+  <si>
+    <t>Acti_TimeTrack_054</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>goFor</t>
+  </si>
+  <si>
+    <t>maintainance</t>
+  </si>
+  <si>
+    <t>Acti_TimeTrack_055</t>
+  </si>
+  <si>
+    <t>Mphasis</t>
+  </si>
+  <si>
+    <t>goShop</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Acti_TimeTrack_056</t>
+  </si>
+  <si>
+    <t>Vega</t>
+  </si>
+  <si>
+    <t>FlipKart</t>
+  </si>
+  <si>
+    <t>Installation</t>
+  </si>
+  <si>
+    <t>URL of Time-Track</t>
+  </si>
+  <si>
+    <t>https://demo.actitime.com/user/submit_tt.do</t>
+  </si>
+  <si>
+    <t>https://demo.actitime.com/user/submit_tt.do?rnd=1&amp;dateStr=20220302</t>
+  </si>
+  <si>
+    <t>URL of Created Task in Time TimeTrack page</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -50,13 +166,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -327,7 +457,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -335,14 +465,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>